--- a/data/trans_orig/P44C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P44C-Edad-trans_orig.xlsx
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4533</v>
+        <v>5685</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05447253902546883</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2210307194849093</v>
+        <v>0.2771767233807153</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5541</v>
+        <v>5514</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03318475258006526</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1645874716786905</v>
+        <v>0.1637863500966723</v>
       </c>
     </row>
     <row r="5">
@@ -819,19 +819,19 @@
         <v>6588</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3130</v>
+        <v>3191</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11932</v>
+        <v>11888</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3212451587267843</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.152627514565061</v>
+        <v>0.1555699951757684</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.581777776915006</v>
+        <v>0.579644039375772</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -840,19 +840,19 @@
         <v>6589</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2449</v>
+        <v>2367</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12339</v>
+        <v>12371</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1957030331357935</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07273548807975454</v>
+        <v>0.07029779533348579</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3665182526064733</v>
+        <v>0.367458080767058</v>
       </c>
     </row>
     <row r="6">
@@ -869,19 +869,19 @@
         <v>8405</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4217</v>
+        <v>4317</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11883</v>
+        <v>11809</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6388408143613574</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3205270094759737</v>
+        <v>0.3281075875514102</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9031352157223143</v>
+        <v>0.897525798303842</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -890,19 +890,19 @@
         <v>7454</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3206</v>
+        <v>3242</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11977</v>
+        <v>12161</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3634674657509022</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1563085086528586</v>
+        <v>0.1580687087360424</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5840118516808644</v>
+        <v>0.5929725876074627</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -911,19 +911,19 @@
         <v>15859</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10427</v>
+        <v>9773</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>22228</v>
+        <v>21995</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4710829568377818</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3097248839349647</v>
+        <v>0.2902820374696606</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.660241120995144</v>
+        <v>0.6533324462052698</v>
       </c>
     </row>
     <row r="7">
@@ -940,19 +940,19 @@
         <v>4752</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1274</v>
+        <v>1348</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8940</v>
+        <v>8840</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3611591856386426</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09686478427768576</v>
+        <v>0.102474201696158</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6794729905240263</v>
+        <v>0.6718924124485899</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -961,19 +961,19 @@
         <v>5349</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2161</v>
+        <v>2047</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9759</v>
+        <v>9999</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2608148364968446</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1053687137938962</v>
+        <v>0.09980248576376803</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4758498596491545</v>
+        <v>0.487532024893885</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -982,19 +982,19 @@
         <v>10101</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5287</v>
+        <v>4983</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16478</v>
+        <v>16054</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3000292574463595</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1570362750521441</v>
+        <v>0.1480094497784648</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4894480257360341</v>
+        <v>0.4768694627780098</v>
       </c>
     </row>
     <row r="8">
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10730</v>
+        <v>10737</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06180153525258845</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2727343375274282</v>
+        <v>0.2729305121112255</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1107,19 +1107,19 @@
         <v>3913</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10481</v>
+        <v>10996</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1122144398035416</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02802883232001466</v>
+        <v>0.02785982396551237</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3005712507260225</v>
+        <v>0.3153413305431035</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1128,19 +1128,19 @@
         <v>6344</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17631</v>
+        <v>16415</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08549000464218655</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02706543296526297</v>
+        <v>0.02690433517925048</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2375721076202927</v>
+        <v>0.2211842604877115</v>
       </c>
     </row>
     <row r="10">
@@ -1157,19 +1157,19 @@
         <v>7307</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3042</v>
+        <v>3019</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12758</v>
+        <v>13011</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1857248443747868</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07731414827431922</v>
+        <v>0.07674623055861862</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3242838294428664</v>
+        <v>0.3307313619517389</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1178,19 +1178,19 @@
         <v>9385</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4248</v>
+        <v>4417</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16189</v>
+        <v>16023</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2691282155664029</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1218100302018535</v>
+        <v>0.1266719140607739</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.464250626267474</v>
+        <v>0.4594947852973926</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -1199,19 +1199,19 @@
         <v>16691</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9718</v>
+        <v>9299</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25793</v>
+        <v>24545</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2249151711980512</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1309522912540673</v>
+        <v>0.1253076002989756</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3475641896395025</v>
+        <v>0.330741354867754</v>
       </c>
     </row>
     <row r="11">
@@ -1228,19 +1228,19 @@
         <v>21008</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13804</v>
+        <v>13432</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>27415</v>
+        <v>27799</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5340051764059397</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3508807760070801</v>
+        <v>0.3414365137270693</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6968671197665883</v>
+        <v>0.7066080754204856</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -1249,19 +1249,19 @@
         <v>10339</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5393</v>
+        <v>5254</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17331</v>
+        <v>16839</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2964864650397434</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1546650201758742</v>
+        <v>0.1506698625495819</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4970045155563276</v>
+        <v>0.4828999094435825</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>27</v>
@@ -1270,19 +1270,19 @@
         <v>31347</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>22187</v>
+        <v>22602</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>40902</v>
+        <v>40631</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4223977462494771</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2989632751122291</v>
+        <v>0.3045598914119528</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5511500785316024</v>
+        <v>0.5475050103559835</v>
       </c>
     </row>
     <row r="12">
@@ -1299,19 +1299,19 @@
         <v>8595</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4053</v>
+        <v>4098</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14387</v>
+        <v>14772</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.218468443966685</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.103030409856823</v>
+        <v>0.1041676838290886</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3656872854911624</v>
+        <v>0.3754977988322534</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1320,19 +1320,19 @@
         <v>11234</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5890</v>
+        <v>6119</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18118</v>
+        <v>17579</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.322170879590312</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1689038616015766</v>
+        <v>0.1754760316130559</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5195674890293788</v>
+        <v>0.5041011176325907</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>18</v>
@@ -1341,19 +1341,19 @@
         <v>19829</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>12343</v>
+        <v>12711</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28161</v>
+        <v>28364</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2671970779102852</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1663240144529889</v>
+        <v>0.1712832232619901</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3794687384369551</v>
+        <v>0.3821969718292563</v>
       </c>
     </row>
     <row r="13">
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10222</v>
+        <v>9699</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06206720734564479</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3122736066254294</v>
+        <v>0.2963013767854569</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11408</v>
+        <v>10267</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03072836008480024</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1725278785753936</v>
+        <v>0.1552782058262845</v>
       </c>
     </row>
     <row r="15">
@@ -1508,19 +1508,19 @@
         <v>12609</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6654</v>
+        <v>6521</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>19251</v>
+        <v>19546</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3851828912125198</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2032548187238984</v>
+        <v>0.199208268561019</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5880789617737142</v>
+        <v>0.5971014259145825</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>12</v>
@@ -1529,19 +1529,19 @@
         <v>11721</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6840</v>
+        <v>7012</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17542</v>
+        <v>17478</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3510766775040428</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2048830949958905</v>
+        <v>0.210020865287619</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5254257767226601</v>
+        <v>0.5235203284437142</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>21</v>
@@ -1550,19 +1550,19 @@
         <v>24330</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>16773</v>
+        <v>15700</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>33741</v>
+        <v>33413</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3679620516135446</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2536686120684692</v>
+        <v>0.2374414306700769</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.5102959326011007</v>
+        <v>0.5053355704749958</v>
       </c>
     </row>
     <row r="16">
@@ -1579,19 +1579,19 @@
         <v>17110</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10101</v>
+        <v>10423</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23536</v>
+        <v>23333</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5226761454039826</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3085595287125582</v>
+        <v>0.3183994673151073</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7189751317568567</v>
+        <v>0.7127968489741856</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -1600,19 +1600,19 @@
         <v>16755</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11150</v>
+        <v>11032</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22873</v>
+        <v>22599</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5018548982698151</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3339842985499439</v>
+        <v>0.3304524227597819</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6851062768176166</v>
+        <v>0.6769012675683426</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -1621,19 +1621,19 @@
         <v>33865</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24931</v>
+        <v>25135</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42332</v>
+        <v>42931</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5121631239289837</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3770466087541157</v>
+        <v>0.3801338596299147</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6402126445522979</v>
+        <v>0.6492759036871675</v>
       </c>
     </row>
     <row r="17">
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4646</v>
+        <v>5170</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0300737560378529</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1419393189919817</v>
+        <v>0.1579280281251333</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1671,19 +1671,19 @@
         <v>4910</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1157</v>
+        <v>1974</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10984</v>
+        <v>11673</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.147068424226142</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03466963048300852</v>
+        <v>0.05913429749801655</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3289881073800607</v>
+        <v>0.3496310577119882</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1692,19 +1692,19 @@
         <v>5894</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2000</v>
+        <v>2040</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13026</v>
+        <v>13425</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08914646437267146</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03024889119944435</v>
+        <v>0.03085044946731255</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1970040155686398</v>
+        <v>0.2030404569570355</v>
       </c>
     </row>
     <row r="18">
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4495</v>
+        <v>4863</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03614233685428569</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1705452820818543</v>
+        <v>0.1845164833137443</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6327</v>
+        <v>6388</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06176871336510636</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2970983929282898</v>
+        <v>0.2999803830042774</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7882</v>
+        <v>7428</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04759498073820959</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1654093918648067</v>
+        <v>0.1558828109799943</v>
       </c>
     </row>
     <row r="20">
@@ -1867,19 +1867,19 @@
         <v>8227</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3902</v>
+        <v>3995</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13987</v>
+        <v>13485</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3121561105141952</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1480595728313399</v>
+        <v>0.1515819096289548</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5307288665424978</v>
+        <v>0.5116805659003677</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -1888,19 +1888,19 @@
         <v>8983</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4609</v>
+        <v>4384</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14600</v>
+        <v>13542</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4218223470204951</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2164492126871763</v>
+        <v>0.20585389638705</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6856215832880981</v>
+        <v>0.635940302289116</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -1909,19 +1909,19 @@
         <v>17209</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10694</v>
+        <v>10827</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24632</v>
+        <v>24479</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3611668769121094</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2244387296900536</v>
+        <v>0.2272315208632172</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5169367427963248</v>
+        <v>0.5137421518898408</v>
       </c>
     </row>
     <row r="21">
@@ -1938,19 +1938,19 @@
         <v>16132</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10424</v>
+        <v>11115</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>21029</v>
+        <v>20978</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6121402593525548</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3955330630818338</v>
+        <v>0.4217539822986712</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7979405234950319</v>
+        <v>0.7959983624245415</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -1959,19 +1959,19 @@
         <v>10997</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6433</v>
+        <v>5510</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15606</v>
+        <v>15553</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5164089396143985</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3020741849933946</v>
+        <v>0.2587654972241617</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7328304012153596</v>
+        <v>0.7303813247372876</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>24</v>
@@ -1980,19 +1980,19 @@
         <v>27129</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>19322</v>
+        <v>19660</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>33936</v>
+        <v>33958</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5693571248334699</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4055046146454722</v>
+        <v>0.4126036282156036</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7122029115549108</v>
+        <v>0.7126753997922279</v>
       </c>
     </row>
     <row r="22">
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5023</v>
+        <v>4452</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03956129327896434</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1905918232998652</v>
+        <v>0.1689249428361815</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5498</v>
+        <v>5630</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02188101751621115</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1153792731853627</v>
+        <v>0.1181620943913853</v>
       </c>
     </row>
     <row r="23">
@@ -2147,19 +2147,19 @@
         <v>5416</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>970</v>
+        <v>1014</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15170</v>
+        <v>15407</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04853262916438378</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.00869712258184952</v>
+        <v>0.00908429080356527</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1359440396314955</v>
+        <v>0.1380726294888392</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -2168,19 +2168,19 @@
         <v>6346</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2194</v>
+        <v>2209</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14327</v>
+        <v>15225</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05765549173291993</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01993298021714471</v>
+        <v>0.02007254800606035</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1301774627071553</v>
+        <v>0.1383293118593171</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>8</v>
@@ -2189,19 +2189,19 @@
         <v>11761</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5133</v>
+        <v>4910</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>22234</v>
+        <v>21849</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05306266293323345</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02316043944353852</v>
+        <v>0.02215046036144153</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1003124197256138</v>
+        <v>0.09857389133095985</v>
       </c>
     </row>
     <row r="25">
@@ -2218,19 +2218,19 @@
         <v>28142</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18355</v>
+        <v>18535</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>39034</v>
+        <v>38261</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2522005500286593</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1644890067857555</v>
+        <v>0.166106817562154</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3498054162201948</v>
+        <v>0.3428772187556204</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>34</v>
@@ -2239,19 +2239,19 @@
         <v>36677</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27356</v>
+        <v>27014</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>46931</v>
+        <v>46762</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.333241493420016</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2485554371718362</v>
+        <v>0.2454466848553366</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4264085285447496</v>
+        <v>0.4248774927575187</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>58</v>
@@ -2260,19 +2260,19 @@
         <v>64819</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>51019</v>
+        <v>51364</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>78641</v>
+        <v>81623</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2924421088008406</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2301819912727269</v>
+        <v>0.23173649582895</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3548010393167533</v>
+        <v>0.368257303365484</v>
       </c>
     </row>
     <row r="26">
@@ -2289,19 +2289,19 @@
         <v>62656</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>50448</v>
+        <v>50553</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>72635</v>
+        <v>72904</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5614961472657999</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4520933499573943</v>
+        <v>0.4530339891005794</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6509236766751187</v>
+        <v>0.6533392638087999</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>42</v>
@@ -2310,19 +2310,19 @@
         <v>45545</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>34712</v>
+        <v>35647</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>56207</v>
+        <v>57392</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4138148096110622</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3153884641516315</v>
+        <v>0.3238881036954412</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5106870679515352</v>
+        <v>0.5214578864905217</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>97</v>
@@ -2331,19 +2331,19 @@
         <v>108201</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>91941</v>
+        <v>91031</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>122912</v>
+        <v>122770</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4881637429268184</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4148068757289149</v>
+        <v>0.4106998187555115</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5545368045483098</v>
+        <v>0.5538979737137327</v>
       </c>
     </row>
     <row r="27">
@@ -2360,19 +2360,19 @@
         <v>15373</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>9034</v>
+        <v>8814</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>23613</v>
+        <v>23308</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.137770673541157</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08096226702208542</v>
+        <v>0.07898652986284863</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2116121011473911</v>
+        <v>0.2088810888463118</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>19</v>
@@ -2381,19 +2381,19 @@
         <v>21494</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>13747</v>
+        <v>13660</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>31488</v>
+        <v>30324</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1952882052360018</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1249041314448983</v>
+        <v>0.1241087210604253</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2860982355008986</v>
+        <v>0.275518614715637</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>33</v>
@@ -2402,19 +2402,19 @@
         <v>36867</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>26703</v>
+        <v>26121</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>50530</v>
+        <v>49884</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1663314853391075</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1204725872855083</v>
+        <v>0.1178509105383218</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2279733334521715</v>
+        <v>0.2250580971153032</v>
       </c>
     </row>
     <row r="28">
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7466</v>
+        <v>7239</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0835063061039235</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2920917460094095</v>
+        <v>0.2832126265018655</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5804</v>
+        <v>5755</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2022604352395519</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5258921148464591</v>
+        <v>0.5214634283434173</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -2788,19 +2788,19 @@
         <v>4367</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1088</v>
+        <v>1128</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9294</v>
+        <v>9391</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1193191455479447</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02973001633543103</v>
+        <v>0.03082205243708462</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2539367126086052</v>
+        <v>0.2565962728545603</v>
       </c>
     </row>
     <row r="5">
@@ -2817,19 +2817,19 @@
         <v>6148</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2179</v>
+        <v>2203</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11655</v>
+        <v>11448</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2405084964874397</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08523909688053537</v>
+        <v>0.08617908020227427</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4559751367849303</v>
+        <v>0.4478829010017138</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -2838,19 +2838,19 @@
         <v>4654</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1633</v>
+        <v>1061</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8585</v>
+        <v>8177</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4216497977323867</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1479496937998321</v>
+        <v>0.09615757294515909</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7778749773508703</v>
+        <v>0.7408754099747008</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -2859,19 +2859,19 @@
         <v>10801</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5818</v>
+        <v>5632</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18051</v>
+        <v>17284</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2951355177572214</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1589636214930195</v>
+        <v>0.1538858906348137</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4932342649533095</v>
+        <v>0.4722596951098019</v>
       </c>
     </row>
     <row r="6">
@@ -2888,19 +2888,19 @@
         <v>8661</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4106</v>
+        <v>4252</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14485</v>
+        <v>14326</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3388302714001033</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1606229589286333</v>
+        <v>0.166330524021447</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.566698532601123</v>
+        <v>0.5604805014028069</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -2909,19 +2909,19 @@
         <v>3123</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>915</v>
+        <v>936</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7337</v>
+        <v>7260</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2829960204556734</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08291457211564127</v>
+        <v>0.08481571584997404</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6647827915281995</v>
+        <v>0.657807852585075</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -2930,19 +2930,19 @@
         <v>11784</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6474</v>
+        <v>6375</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>18600</v>
+        <v>18256</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3219922626579707</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1768950372508848</v>
+        <v>0.1741953288140921</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5082167345069281</v>
+        <v>0.4988241311830728</v>
       </c>
     </row>
     <row r="7">
@@ -2959,19 +2959,19 @@
         <v>8618</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4173</v>
+        <v>4345</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14141</v>
+        <v>14182</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3371549260085335</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1632724057334272</v>
+        <v>0.1700025726205831</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5532231982304684</v>
+        <v>0.5548490318644304</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4369</v>
+        <v>4911</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09309374657238796</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3958506067106163</v>
+        <v>0.4449669823275453</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -3001,19 +3001,19 @@
         <v>9646</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4265</v>
+        <v>4479</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15247</v>
+        <v>15941</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2635530740368632</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1165446856550413</v>
+        <v>0.122380954228555</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4166136015386019</v>
+        <v>0.4355827842728861</v>
       </c>
     </row>
     <row r="8">
@@ -3105,19 +3105,19 @@
         <v>6876</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2799</v>
+        <v>2897</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13585</v>
+        <v>12994</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1363479685081986</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05550810592073755</v>
+        <v>0.05744043507930819</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2693874446650666</v>
+        <v>0.2576505984701793</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4392</v>
+        <v>5546</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02947529435765077</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1160730153237778</v>
+        <v>0.1465581445759529</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -3147,19 +3147,19 @@
         <v>7992</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3139</v>
+        <v>3599</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16141</v>
+        <v>15306</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09053403328648885</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03556528308610681</v>
+        <v>0.04076900070068621</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.182855783726761</v>
+        <v>0.1734031886399147</v>
       </c>
     </row>
     <row r="10">
@@ -3176,19 +3176,19 @@
         <v>5550</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2167</v>
+        <v>2147</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11319</v>
+        <v>11848</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1100587910819966</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04296371578549567</v>
+        <v>0.04257512748211659</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2244382562248826</v>
+        <v>0.2349333576239105</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -3197,19 +3197,19 @@
         <v>17129</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10976</v>
+        <v>11015</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24401</v>
+        <v>24254</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4526696761911722</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2900545759562354</v>
+        <v>0.2910902602601533</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6448384441381942</v>
+        <v>0.6409713690492538</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -3218,19 +3218,19 @@
         <v>22679</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14194</v>
+        <v>15056</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31350</v>
+        <v>32830</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2569284471601584</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1608019522279995</v>
+        <v>0.1705638715202878</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3551507636011206</v>
+        <v>0.3719233980802682</v>
       </c>
     </row>
     <row r="11">
@@ -3247,19 +3247,19 @@
         <v>25355</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18197</v>
+        <v>17573</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32925</v>
+        <v>32486</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5027579873274325</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3608390033426239</v>
+        <v>0.3484494451618602</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6528707293183957</v>
+        <v>0.6441616035796419</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -3268,19 +3268,19 @@
         <v>14402</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7933</v>
+        <v>8437</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20778</v>
+        <v>21229</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3806009794596683</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2096386210125014</v>
+        <v>0.2229759495563722</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5490988630560408</v>
+        <v>0.5610295057462559</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>35</v>
@@ -3289,19 +3289,19 @@
         <v>39757</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29918</v>
+        <v>29929</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>49875</v>
+        <v>50020</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4503919986421671</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3389383289194154</v>
+        <v>0.3390572938474554</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5650223782831699</v>
+        <v>0.5666601007965537</v>
       </c>
     </row>
     <row r="12">
@@ -3318,19 +3318,19 @@
         <v>12650</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7068</v>
+        <v>7030</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20681</v>
+        <v>20252</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2508352530823723</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1401603224615595</v>
+        <v>0.1393962988527532</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4100789908627711</v>
+        <v>0.4015861356851625</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -3339,19 +3339,19 @@
         <v>5194</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1171</v>
+        <v>1844</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11479</v>
+        <v>11805</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1372540499915088</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03094156034535466</v>
+        <v>0.04872967914599671</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3033609581305335</v>
+        <v>0.3119611737351295</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>15</v>
@@ -3360,19 +3360,19 @@
         <v>17844</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>9510</v>
+        <v>10555</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>26366</v>
+        <v>27256</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2021455209111856</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1077396462990562</v>
+        <v>0.1195762083063117</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2986979092551651</v>
+        <v>0.3087742835138905</v>
       </c>
     </row>
     <row r="13">
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4974</v>
+        <v>5551</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02357577449096269</v>
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1106896445878212</v>
+        <v>0.1235530281569708</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5416</v>
+        <v>5248</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01405879718013395</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07187638107020536</v>
+        <v>0.06965512065317037</v>
       </c>
     </row>
     <row r="15">
@@ -3527,19 +3527,19 @@
         <v>7610</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3527</v>
+        <v>3482</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12858</v>
+        <v>14096</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1693696718103392</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07849398110332137</v>
+        <v>0.07749747824352535</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2861579763935498</v>
+        <v>0.3137236336615406</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6224</v>
+        <v>7029</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06675643333359306</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2046332843978301</v>
+        <v>0.2310989244388703</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>10</v>
@@ -3569,19 +3569,19 @@
         <v>9641</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>4705</v>
+        <v>4682</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>16194</v>
+        <v>15920</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1279471572393672</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06244216885430845</v>
+        <v>0.06213908616313266</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.214922538208672</v>
+        <v>0.2112872369526185</v>
       </c>
     </row>
     <row r="16">
@@ -3598,19 +3598,19 @@
         <v>28348</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21461</v>
+        <v>21075</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34414</v>
+        <v>34476</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6309099460809986</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4776356625503605</v>
+        <v>0.4690479207015228</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7659055524384693</v>
+        <v>0.7673026998423895</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -3619,19 +3619,19 @@
         <v>20225</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13836</v>
+        <v>14623</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24998</v>
+        <v>25400</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6649575360091191</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4548989432249835</v>
+        <v>0.4807824938700635</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.821856490528809</v>
+        <v>0.8350898388140542</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -3640,19 +3640,19 @@
         <v>48573</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>39426</v>
+        <v>40460</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56491</v>
+        <v>57024</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6446541452782948</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5232519747927353</v>
+        <v>0.536969097965718</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7497314103271373</v>
+        <v>0.7568029447262392</v>
       </c>
     </row>
     <row r="17">
@@ -3669,19 +3669,19 @@
         <v>7915</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3870</v>
+        <v>3774</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14272</v>
+        <v>13163</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1761446076176995</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08613785539476451</v>
+        <v>0.08398337767313908</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3176409346661032</v>
+        <v>0.2929607733178277</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -3690,19 +3690,19 @@
         <v>8160</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3355</v>
+        <v>3332</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13951</v>
+        <v>14764</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2682860306572878</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1103044966210749</v>
+        <v>0.1095451850687846</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4586848577004336</v>
+        <v>0.4854183455670914</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -3711,19 +3711,19 @@
         <v>16075</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9445</v>
+        <v>10033</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24540</v>
+        <v>24577</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2133399003022041</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1253562820623063</v>
+        <v>0.1331521571178457</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3256881469521709</v>
+        <v>0.3261747902401047</v>
       </c>
     </row>
     <row r="18">
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5962</v>
+        <v>5258</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04351713258989406</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1491685773187987</v>
+        <v>0.1315580899966736</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8476</v>
+        <v>7303</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06557527086003856</v>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2355956661334327</v>
+        <v>0.2029921657780439</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -3857,19 +3857,19 @@
         <v>4098</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1137</v>
+        <v>1242</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10686</v>
+        <v>10181</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0539666797533505</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01496960882093693</v>
+        <v>0.01635272729804034</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1407058347656991</v>
+        <v>0.1340626041956574</v>
       </c>
     </row>
     <row r="20">
@@ -3886,19 +3886,19 @@
         <v>10803</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6548</v>
+        <v>6506</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16291</v>
+        <v>16962</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2702943893208151</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1638382202882973</v>
+        <v>0.162789828942509</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.407602232044289</v>
+        <v>0.4244002699562976</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -3907,19 +3907,19 @@
         <v>9995</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4870</v>
+        <v>4726</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17114</v>
+        <v>16420</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2778095229519056</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1353679103571068</v>
+        <v>0.1313482262062479</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4756820740601231</v>
+        <v>0.4563921723078115</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -3928,19 +3928,19 @@
         <v>20798</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13312</v>
+        <v>13865</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>29153</v>
+        <v>29923</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2738545149468317</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1752910151298575</v>
+        <v>0.182567725141341</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3838725867980582</v>
+        <v>0.3940080511886949</v>
       </c>
     </row>
     <row r="21">
@@ -3957,19 +3957,19 @@
         <v>25733</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19487</v>
+        <v>19710</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30376</v>
+        <v>30856</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6438509478272022</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4875605111364963</v>
+        <v>0.4931385552578416</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7599967634283105</v>
+        <v>0.7720212296454643</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>16</v>
@@ -3978,19 +3978,19 @@
         <v>22281</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>15111</v>
+        <v>15844</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>28123</v>
+        <v>28360</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.61931518831583</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4200231695733536</v>
+        <v>0.4403914211863071</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7816984917250713</v>
+        <v>0.7882915630148455</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>45</v>
@@ -3999,19 +3999,19 @@
         <v>48015</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>39082</v>
+        <v>38016</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>56326</v>
+        <v>55786</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6322276832948401</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5146052864137556</v>
+        <v>0.5005773863744746</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7416643019954982</v>
+        <v>0.7345551233881824</v>
       </c>
     </row>
     <row r="22">
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5852</v>
+        <v>5977</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04233753026208863</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1464249339489205</v>
+        <v>0.1495528528965644</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7683</v>
+        <v>6888</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03730001787222578</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2135566247384857</v>
+        <v>0.1914539014050597</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -4070,19 +4070,19 @@
         <v>3034</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>798</v>
+        <v>823</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7808</v>
+        <v>8611</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03995112200497767</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01050591695326535</v>
+        <v>0.01084135923496616</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1028118425016698</v>
+        <v>0.1133846444510205</v>
       </c>
     </row>
     <row r="23">
@@ -4174,19 +4174,19 @@
         <v>11809</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6062</v>
+        <v>6305</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19985</v>
+        <v>20414</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07339907133207714</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03767963299035626</v>
+        <v>0.0391859889654327</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1242133762298719</v>
+        <v>0.1268781567038063</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -4195,19 +4195,19 @@
         <v>5707</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2241</v>
+        <v>2202</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12974</v>
+        <v>12766</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04950885043281895</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01944404713353578</v>
+        <v>0.01910509668309983</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1125572101176601</v>
+        <v>0.1107504990877602</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>16</v>
@@ -4216,19 +4216,19 @@
         <v>17516</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10303</v>
+        <v>9904</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>26847</v>
+        <v>27269</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06342728272150072</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03730929874020635</v>
+        <v>0.0358614660973038</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09721583692371838</v>
+        <v>0.09874443360684391</v>
       </c>
     </row>
     <row r="25">
@@ -4245,19 +4245,19 @@
         <v>30111</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21353</v>
+        <v>21274</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40822</v>
+        <v>40424</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1871517308457072</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1327179792907449</v>
+        <v>0.1322254968880432</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2537241426913297</v>
+        <v>0.2512488557161139</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -4266,19 +4266,19 @@
         <v>33808</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23738</v>
+        <v>23994</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>45691</v>
+        <v>44912</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2932936397310701</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2059326223754747</v>
+        <v>0.2081522992770543</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.396379568390563</v>
+        <v>0.389626203211112</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>60</v>
@@ -4287,19 +4287,19 @@
         <v>63919</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>51040</v>
+        <v>49371</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>79341</v>
+        <v>77973</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2314554098527425</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1848196810502798</v>
+        <v>0.1787736953951734</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2872986832042348</v>
+        <v>0.2823463998144587</v>
       </c>
     </row>
     <row r="26">
@@ -4316,19 +4316,19 @@
         <v>88097</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>75606</v>
+        <v>75717</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>100345</v>
+        <v>101807</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5475523999818972</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4699195300639163</v>
+        <v>0.4706083639099998</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6236802891500974</v>
+        <v>0.6327684070747694</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>52</v>
@@ -4337,19 +4337,19 @@
         <v>60032</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>48652</v>
+        <v>48532</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>71333</v>
+        <v>72131</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5207934941262696</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4220688218310071</v>
+        <v>0.4210296193627632</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.618835638131655</v>
+        <v>0.6257565244165598</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>136</v>
@@ -4358,19 +4358,19 @@
         <v>148129</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>130914</v>
+        <v>131206</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>165356</v>
+        <v>165588</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5363832210208554</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.474049065490096</v>
+        <v>0.4751049013624439</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5987641194888786</v>
+        <v>0.5996036810597969</v>
       </c>
     </row>
     <row r="27">
@@ -4387,19 +4387,19 @@
         <v>30875</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>21249</v>
+        <v>21994</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>42552</v>
+        <v>41661</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1918967978403185</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1320683274909481</v>
+        <v>0.1366999907113396</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2644772197643126</v>
+        <v>0.25893474820297</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>13</v>
@@ -4408,19 +4408,19 @@
         <v>15723</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>8914</v>
+        <v>8291</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>25226</v>
+        <v>25281</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1364040157098413</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07732725955817572</v>
+        <v>0.07192435521967006</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2188400442422603</v>
+        <v>0.2193227966917299</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>42</v>
@@ -4429,19 +4429,19 @@
         <v>46598</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>33668</v>
+        <v>34839</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>61170</v>
+        <v>62317</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1687340864049012</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1219128055596269</v>
+        <v>0.12615294885076</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2214993437043192</v>
+        <v>0.2256546509072154</v>
       </c>
     </row>
     <row r="28">
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5945</v>
+        <v>5886</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01245390546784864</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06894076676999904</v>
+        <v>0.06824943647058586</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -4794,19 +4794,19 @@
         <v>5079</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2452</v>
+        <v>2288</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9688</v>
+        <v>9245</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07008542107359889</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03383680714501789</v>
+        <v>0.03157739993776344</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1336867693351587</v>
+        <v>0.127565554206744</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -4815,19 +4815,19 @@
         <v>6153</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3030</v>
+        <v>3125</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12184</v>
+        <v>11138</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03876985868089056</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01909300400038845</v>
+        <v>0.01969115005465366</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07677126903393885</v>
+        <v>0.07017822394512127</v>
       </c>
     </row>
     <row r="5">
@@ -4844,19 +4844,19 @@
         <v>27778</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20049</v>
+        <v>20303</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37428</v>
+        <v>37430</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.322104821603396</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2324830752328833</v>
+        <v>0.2354258706572994</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4340019171566024</v>
+        <v>0.4340237370906002</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -4865,19 +4865,19 @@
         <v>20303</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14580</v>
+        <v>14486</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26878</v>
+        <v>26296</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2801487381703217</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2011778069740582</v>
+        <v>0.1998829770926772</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3708777188805328</v>
+        <v>0.3628549330416928</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>60</v>
@@ -4886,19 +4886,19 @@
         <v>48081</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>38477</v>
+        <v>38628</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>59303</v>
+        <v>59344</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.302946652379106</v>
+        <v>0.3029466523791062</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2424341424346073</v>
+        <v>0.2433870572075965</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3736508501302225</v>
+        <v>0.3739112061714031</v>
       </c>
     </row>
     <row r="6">
@@ -4915,19 +4915,19 @@
         <v>37162</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28426</v>
+        <v>27967</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>46292</v>
+        <v>46982</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4309131380548563</v>
+        <v>0.4309131380548561</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3296195504414056</v>
+        <v>0.3242964946273081</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5367821019120365</v>
+        <v>0.5447843457069137</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>48</v>
@@ -4936,19 +4936,19 @@
         <v>30679</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24653</v>
+        <v>24396</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>38034</v>
+        <v>37776</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.423329959004674</v>
+        <v>0.4233299590046739</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.340175935289021</v>
+        <v>0.3366310121070147</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5248150929593681</v>
+        <v>0.521259862225122</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>85</v>
@@ -4957,19 +4957,19 @@
         <v>67841</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>56963</v>
+        <v>56311</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>78499</v>
+        <v>77584</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.4274504738685476</v>
+        <v>0.4274504738685477</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3589074443606531</v>
+        <v>0.354803669501909</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.494605321070294</v>
+        <v>0.4888359592960546</v>
       </c>
     </row>
     <row r="7">
@@ -4986,19 +4986,19 @@
         <v>20226</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12495</v>
+        <v>13383</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28665</v>
+        <v>29652</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2345281348738993</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1448811256669732</v>
+        <v>0.1551802876661932</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3323805941013876</v>
+        <v>0.3438355067448699</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -5007,19 +5007,19 @@
         <v>16410</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11216</v>
+        <v>11526</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22270</v>
+        <v>22410</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2264358817514056</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1547661729949475</v>
+        <v>0.1590495807466955</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3073002051136779</v>
+        <v>0.3092215990231836</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -5028,19 +5028,19 @@
         <v>36636</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27897</v>
+        <v>28110</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47761</v>
+        <v>46998</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2308330150714559</v>
+        <v>0.2308330150714558</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1757719821681152</v>
+        <v>0.1771171397882494</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3009335248930642</v>
+        <v>0.2961227686917475</v>
       </c>
     </row>
     <row r="8">
@@ -5132,19 +5132,19 @@
         <v>7868</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3722</v>
+        <v>3645</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14965</v>
+        <v>15368</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0427489745817525</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02022463774944232</v>
+        <v>0.01980481204325739</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08131210341263825</v>
+        <v>0.08349892499538673</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -5153,19 +5153,19 @@
         <v>5352</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2659</v>
+        <v>2537</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10016</v>
+        <v>9820</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.03233854435650751</v>
+        <v>0.03233854435650752</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01606551673553289</v>
+        <v>0.01533170424500911</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06052315666598718</v>
+        <v>0.05934192541575974</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>16</v>
@@ -5174,19 +5174,19 @@
         <v>13220</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7602</v>
+        <v>7853</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>20733</v>
+        <v>20449</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.0378201358308161</v>
+        <v>0.03782013583081611</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02174866244577903</v>
+        <v>0.02246775778721403</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05931495595589181</v>
+        <v>0.05850191122265264</v>
       </c>
     </row>
     <row r="10">
@@ -5203,19 +5203,19 @@
         <v>52003</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40604</v>
+        <v>40829</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64209</v>
+        <v>64378</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2825467786713182</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2206124504839314</v>
+        <v>0.2218376057758938</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3488668622266206</v>
+        <v>0.3497843140824868</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>93</v>
@@ -5224,19 +5224,19 @@
         <v>56168</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46213</v>
+        <v>46816</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66191</v>
+        <v>65778</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3394046808012656</v>
+        <v>0.3394046808012657</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2792522962742502</v>
+        <v>0.2828937373612233</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3999683302464552</v>
+        <v>0.3974766237183868</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>150</v>
@@ -5245,19 +5245,19 @@
         <v>108171</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>93420</v>
+        <v>94400</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>124095</v>
+        <v>123054</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3094662647301605</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2672668616266755</v>
+        <v>0.2700695909647469</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.355023640150221</v>
+        <v>0.3520465715523255</v>
       </c>
     </row>
     <row r="11">
@@ -5274,19 +5274,19 @@
         <v>79615</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>68050</v>
+        <v>67524</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>92061</v>
+        <v>92786</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4325743976899459</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3697368637846468</v>
+        <v>0.3668772631922074</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5001948225413401</v>
+        <v>0.5041360919631231</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>111</v>
@@ -5295,19 +5295,19 @@
         <v>70308</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>60166</v>
+        <v>60253</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>80038</v>
+        <v>80711</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4248496752963994</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3635616551778323</v>
+        <v>0.3640906308195509</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4836411942846356</v>
+        <v>0.4877096690494581</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>200</v>
@@ -5316,19 +5316,19 @@
         <v>149924</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>133699</v>
+        <v>134298</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>165889</v>
+        <v>165380</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4289171126162503</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3825009077621707</v>
+        <v>0.3842130971363745</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4745932792479954</v>
+        <v>0.473135999619534</v>
       </c>
     </row>
     <row r="12">
@@ -5345,19 +5345,19 @@
         <v>44564</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>34089</v>
+        <v>34642</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>55009</v>
+        <v>55939</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2421298490569835</v>
+        <v>0.2421298490569834</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1852146631336321</v>
+        <v>0.1882202725283555</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2988791838934881</v>
+        <v>0.303934619252729</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>55</v>
@@ -5366,19 +5366,19 @@
         <v>33662</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>26536</v>
+        <v>26680</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>42451</v>
+        <v>42461</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2034070995458273</v>
+        <v>0.2034070995458274</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1603487291164091</v>
+        <v>0.1612195848225575</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2565142892612424</v>
+        <v>0.256575263944477</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>107</v>
@@ -5387,19 +5387,19 @@
         <v>78226</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>65602</v>
+        <v>65667</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>92360</v>
+        <v>91176</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.223796486822773</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1876813227815082</v>
+        <v>0.1878658206865365</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2642335020362049</v>
+        <v>0.2608446982498969</v>
       </c>
     </row>
     <row r="13">
@@ -5491,19 +5491,19 @@
         <v>6515</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3285</v>
+        <v>3156</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11672</v>
+        <v>12471</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03774949008759347</v>
+        <v>0.03774949008759348</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01903784767353609</v>
+        <v>0.0182879266830599</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0676329976879631</v>
+        <v>0.07226624382966436</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -5512,19 +5512,19 @@
         <v>5507</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3031</v>
+        <v>2766</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9756</v>
+        <v>9832</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03600713603718558</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01981426895858364</v>
+        <v>0.01808141514151295</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06378281848971455</v>
+        <v>0.06428077969307229</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -5533,19 +5533,19 @@
         <v>12022</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7216</v>
+        <v>7198</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>18345</v>
+        <v>17650</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03693083158539587</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0221666362053714</v>
+        <v>0.02211110563401346</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05635588635207225</v>
+        <v>0.05422108106302637</v>
       </c>
     </row>
     <row r="15">
@@ -5562,19 +5562,19 @@
         <v>39505</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>30461</v>
+        <v>30928</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>49142</v>
+        <v>49702</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2289146851800331</v>
+        <v>0.2289146851800332</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1765072705783682</v>
+        <v>0.1792128433815786</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.284756744972979</v>
+        <v>0.2880046259032565</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>76</v>
@@ -5583,19 +5583,19 @@
         <v>39899</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>32470</v>
+        <v>32182</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>47430</v>
+        <v>48232</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.260863728564461</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2122869575508332</v>
+        <v>0.2104098945218225</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3100982181549626</v>
+        <v>0.3153454860671571</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>131</v>
@@ -5604,19 +5604,19 @@
         <v>79404</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>68317</v>
+        <v>67146</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>91292</v>
+        <v>91695</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2439261898725603</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2098675777744189</v>
+        <v>0.2062712605687744</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2804458990566934</v>
+        <v>0.2816842299295166</v>
       </c>
     </row>
     <row r="16">
@@ -5633,19 +5633,19 @@
         <v>92545</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81207</v>
+        <v>81168</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103515</v>
+        <v>102668</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5362571558174275</v>
+        <v>0.5362571558174277</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.470561558918929</v>
+        <v>0.4703374299015607</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5998250472923968</v>
+        <v>0.5949203742311874</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>140</v>
@@ -5654,19 +5654,19 @@
         <v>77087</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>68069</v>
+        <v>68128</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>86519</v>
+        <v>85544</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5039992733300294</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4450388160938028</v>
+        <v>0.4454210570301202</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5656625487541559</v>
+        <v>0.5592880121632396</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>271</v>
@@ -5675,19 +5675,19 @@
         <v>169631</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>155433</v>
+        <v>153682</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>184342</v>
+        <v>183399</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5211005406880185</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4774836943645846</v>
+        <v>0.4721059086262075</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5662898890036211</v>
+        <v>0.5633958304978587</v>
       </c>
     </row>
     <row r="17">
@@ -5704,19 +5704,19 @@
         <v>34011</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26072</v>
+        <v>26237</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>43183</v>
+        <v>43761</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1970786689149458</v>
+        <v>0.1970786689149459</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1510768303584125</v>
+        <v>0.1520329348477146</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2502280098225617</v>
+        <v>0.2535744216649984</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>55</v>
@@ -5725,19 +5725,19 @@
         <v>30457</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23806</v>
+        <v>24031</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38187</v>
+        <v>38735</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.199129862068324</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1556414996056522</v>
+        <v>0.1571146999527286</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.249665325574514</v>
+        <v>0.2532534750557803</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>102</v>
@@ -5746,19 +5746,19 @@
         <v>64468</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>54359</v>
+        <v>53159</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>77313</v>
+        <v>76221</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1980424378540254</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.166988419963786</v>
+        <v>0.163303013330898</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2375020706270879</v>
+        <v>0.234147835316794</v>
       </c>
     </row>
     <row r="18">
@@ -5850,19 +5850,19 @@
         <v>4172</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1632</v>
+        <v>1671</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9413</v>
+        <v>8979</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03907388407134237</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01528449644841031</v>
+        <v>0.01564590207927068</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08815054558062296</v>
+        <v>0.08409165062136632</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -5871,19 +5871,19 @@
         <v>1386</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>3739</v>
+        <v>3833</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01175713945093117</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003311414132490638</v>
+        <v>0.003321054337466189</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03172133888725336</v>
+        <v>0.03252028262499715</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -5892,19 +5892,19 @@
         <v>5558</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2680</v>
+        <v>2715</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10865</v>
+        <v>11055</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02474197239410064</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01193122435967965</v>
+        <v>0.01208620702726912</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0483642122284059</v>
+        <v>0.04921047129212511</v>
       </c>
     </row>
     <row r="20">
@@ -5921,19 +5921,19 @@
         <v>16149</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11061</v>
+        <v>10946</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23556</v>
+        <v>22964</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1512363706385275</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.103589480272898</v>
+        <v>0.1025034463496159</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2206033158633347</v>
+        <v>0.2150534198998974</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>35</v>
@@ -5942,19 +5942,19 @@
         <v>17308</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12490</v>
+        <v>12454</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23461</v>
+        <v>23753</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1468503920149293</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1059768110546351</v>
+        <v>0.1056707453942601</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1990583408523249</v>
+        <v>0.2015345785477744</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>59</v>
@@ -5963,19 +5963,19 @@
         <v>33457</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>26028</v>
+        <v>25449</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>42301</v>
+        <v>41543</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.148935237793997</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1158636738432214</v>
+        <v>0.1132861227111641</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1883023287541493</v>
+        <v>0.1849318150291742</v>
       </c>
     </row>
     <row r="21">
@@ -5992,19 +5992,19 @@
         <v>64496</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>56257</v>
+        <v>55964</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>72822</v>
+        <v>72381</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6039939898605492</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5268429432687047</v>
+        <v>0.5240915878547483</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6819712438159363</v>
+        <v>0.6778433593255353</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>145</v>
@@ -6013,19 +6013,19 @@
         <v>85454</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>77177</v>
+        <v>77187</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>91909</v>
+        <v>91980</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7250449474418399</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6548154001634737</v>
+        <v>0.6549079504373404</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.779816992062531</v>
+        <v>0.7804192283059318</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>237</v>
@@ -6034,19 +6034,19 @@
         <v>149949</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>137790</v>
+        <v>138704</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>160647</v>
+        <v>161406</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6675041795485355</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6133754114084586</v>
+        <v>0.6174445365108608</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7151229264469774</v>
+        <v>0.7185040661807972</v>
       </c>
     </row>
     <row r="22">
@@ -6063,19 +6063,19 @@
         <v>21965</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15851</v>
+        <v>15635</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29126</v>
+        <v>28872</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.205695755429581</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.148445797289682</v>
+        <v>0.1464179549175</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2727628905103778</v>
+        <v>0.2703855461753963</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -6084,19 +6084,19 @@
         <v>13713</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9026</v>
+        <v>9046</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19618</v>
+        <v>20641</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1163475210922995</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07658644295993043</v>
+        <v>0.07675228163328368</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1664499644413775</v>
+        <v>0.175131867298149</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>55</v>
@@ -6105,19 +6105,19 @@
         <v>35677</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>27438</v>
+        <v>27159</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>45497</v>
+        <v>45804</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1588186102633669</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1221417252363605</v>
+        <v>0.1208975896957187</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2025314898666286</v>
+        <v>0.2038995786715293</v>
       </c>
     </row>
     <row r="23">
@@ -6209,19 +6209,19 @@
         <v>19629</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12187</v>
+        <v>12703</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29328</v>
+        <v>28017</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0357119871055905</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02217252549958173</v>
+        <v>0.02311089719884099</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05335868863921793</v>
+        <v>0.05097358476222252</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>29</v>
@@ -6230,19 +6230,19 @@
         <v>17324</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11457</v>
+        <v>11592</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>24567</v>
+        <v>24680</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.03405041931844046</v>
+        <v>0.03405041931844045</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02251847733932818</v>
+        <v>0.022784203151102</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04828608005828164</v>
+        <v>0.04850813411242681</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>53</v>
@@ -6251,19 +6251,19 @@
         <v>36953</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>28239</v>
+        <v>28131</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>49147</v>
+        <v>49274</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03491328634787585</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02668074575203783</v>
+        <v>0.0265785848428208</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04643406552279524</v>
+        <v>0.0465539775961076</v>
       </c>
     </row>
     <row r="25">
@@ -6280,19 +6280,19 @@
         <v>135435</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>119867</v>
+        <v>117955</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>154676</v>
+        <v>155544</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2464041297481983</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.218080180831552</v>
+        <v>0.2146015853998658</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2814097381296534</v>
+        <v>0.2829896515352838</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>236</v>
@@ -6301,19 +6301,19 @@
         <v>133678</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>118978</v>
+        <v>118099</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>149815</v>
+        <v>147201</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2627462960698398</v>
+        <v>0.2627462960698397</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2338531253900063</v>
+        <v>0.232125036311866</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2944631414935864</v>
+        <v>0.2893253429626074</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>400</v>
@@ -6322,19 +6322,19 @@
         <v>269113</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>245352</v>
+        <v>246689</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>294396</v>
+        <v>293794</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2542596627723319</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2318097277007438</v>
+        <v>0.2330733921727627</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2781474526824761</v>
+        <v>0.2775785467410583</v>
       </c>
     </row>
     <row r="26">
@@ -6351,19 +6351,19 @@
         <v>273817</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>253221</v>
+        <v>253256</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>296821</v>
+        <v>294480</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4981698600301874</v>
+        <v>0.4981698600301875</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4606980066607593</v>
+        <v>0.4607614763387253</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5400215761530403</v>
+        <v>0.5357629088454782</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>444</v>
@@ -6372,19 +6372,19 @@
         <v>263528</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>246457</v>
+        <v>247964</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>280859</v>
+        <v>283074</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.5179695646391013</v>
+        <v>0.5179695646391014</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4844154164369454</v>
+        <v>0.4873771802950879</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5520330395586714</v>
+        <v>0.556387491579165</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>793</v>
@@ -6393,19 +6393,19 @@
         <v>537345</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>508000</v>
+        <v>507591</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>564150</v>
+        <v>563978</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5076874007504432</v>
+        <v>0.5076874007504433</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4799615356632048</v>
+        <v>0.4795752290981675</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5330122742305722</v>
+        <v>0.5328498000556077</v>
       </c>
     </row>
     <row r="27">
@@ -6422,19 +6422,19 @@
         <v>120765</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>103800</v>
+        <v>102912</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>139814</v>
+        <v>139870</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2197140231160236</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1888495474799408</v>
+        <v>0.1872331797054871</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2543708431467859</v>
+        <v>0.2544721263474464</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>158</v>
@@ -6443,19 +6443,19 @@
         <v>94242</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>81106</v>
+        <v>80288</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>107497</v>
+        <v>105943</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1852337199726184</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1594147162798565</v>
+        <v>0.1578072616941362</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2112862819201771</v>
+        <v>0.2082327289287831</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>307</v>
@@ -6464,19 +6464,19 @@
         <v>215007</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>193349</v>
+        <v>192942</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>237547</v>
+        <v>237897</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2031396501293491</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1826771170360229</v>
+        <v>0.1822927854756531</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2244363149859044</v>
+        <v>0.2247664079826878</v>
       </c>
     </row>
     <row r="28">
